--- a/data/trans_bre/IP19C06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C06-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 0,0</t>
+          <t>-12,42; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,42</t>
+          <t>0,0; 10,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,0</t>
+          <t>-1,22; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,6</t>
+          <t>-0,61; 2,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,25</t>
+          <t>-0,76; 1,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-85,61; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,0</t>
+          <t>-5,43; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,0</t>
+          <t>-4,54; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 7,65</t>
+          <t>0,13; 6,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,0</t>
+          <t>-1,2; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,48</t>
+          <t>-0,76; 1,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,94</t>
+          <t>-0,38; 1,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,41</t>
+          <t>-0,04; 2,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-79,79; 850,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,8; —</t>
+          <t>-44,85; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C06-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 0,0</t>
+          <t>-12,76; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,92</t>
+          <t>0,0; 12,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>82,12%</t>
+          <t>52,62%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,0</t>
+          <t>-1,23; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,49</t>
+          <t>-0,56; 2,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,24</t>
+          <t>-1,02; 1,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-83,97; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>416,11%</t>
+          <t>337,47%</t>
         </is>
       </c>
     </row>
@@ -868,14 +868,14 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-6,22; 0,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>-5,43; 0,0</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 0,0</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,95</t>
+          <t>-0,16; 6,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>256,53%</t>
+          <t>199,63%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,0</t>
+          <t>-1,12; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,42</t>
+          <t>-0,69; 1,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,08</t>
+          <t>-0,38; 1,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,32</t>
+          <t>-0,18; 2,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,95; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,85; —</t>
+          <t>-52,24; —</t>
         </is>
       </c>
     </row>
